--- a/exercise-height-weight/data/DataSample-WeightHeight.xlsx
+++ b/exercise-height-weight/data/DataSample-WeightHeight.xlsx
@@ -1,27 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\khix10\CSCE580\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50865F4C-D414-46B1-9611-450890D153B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>S.No</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -37,26 +66,50 @@
   <si>
     <t>BMI Category = C1, C2, C3, C4</t>
   </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,42 +117,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -289,26 +346,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="18.25"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="28.5" customHeight="1">
+    <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -325,141 +385,225 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" s="4">
+        <f>C3/(B3/100)^2</f>
+        <v>27.699286139202862</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D32" si="0">C4/(B4/100)^2</f>
+        <v>32.981009604841894</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2">
         <v>67.8</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>24.022108843537417</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2">
-        <v>76.4</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>27.069160997732432</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>24.221453287197235</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>23.76543209876543</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>23.555555555555557</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>21.551004042901532</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2">
-        <v>88.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>88</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>23.624795296518027</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="C12" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>22.576177285318561</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="C13" s="2">
-        <v>102.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>102</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>27.383285457327716</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2">
         <v>136.078</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>41.536583132383015</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>152.4</v>
@@ -467,196 +611,321 @@
       <c r="C15" s="2">
         <v>54.43</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>23.435185759260406</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2">
         <v>90.7</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>25.662064282480763</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>19.925129815239703</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>70</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>23.148148148148145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>21.648899638687329</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>24.977043158861342</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>23.086419753086417</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>95</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>25.241789775746625</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="C24" s="2">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>300</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>99.088386841062231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3">
-        <v>93.0</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26">
+        <v>93</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>30.367346938775512</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>177.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>177</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>105</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>28.483072916666668</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="C28" s="2">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>27.764650283553873</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="C29" s="2">
-        <v>79.4</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>23.709277673265849</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>55</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>18.376825152861773</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="C31" s="2">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>27.146814404432135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2">
-        <v>90.0</v>
+        <v>90</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>27.777777777777775</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>